--- a/docs/Sprint03/Burndown_Sprint_03.xlsx
+++ b/docs/Sprint03/Burndown_Sprint_03.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Data de início:</t>
   </si>
@@ -58,10 +58,46 @@
     <t>Pop-Up Avaliação: Mudar campos de dia e mês para ComboBox com valor fixo</t>
   </si>
   <si>
+    <t>Amanda</t>
+  </si>
+  <si>
     <t>Pop-Up Avaliação: Mostrar Sala Atual a qual a avaliação será cadastrada</t>
   </si>
   <si>
     <t>Pop-Up Avaliação: Ao cadastrar, verificar se já não existe avaliação com o mesmo nome para aquela sala</t>
+  </si>
+  <si>
+    <t>Tela Principal: Função de Atualizar Data de Entrega e Notas*</t>
+  </si>
+  <si>
+    <t>Alexandre</t>
+  </si>
+  <si>
+    <t>Tela Principal: Função para exibir rendimento geral da sala</t>
+  </si>
+  <si>
+    <t>Tela Principal: Opção para ordenar a ordem que as avaliações aparecem</t>
+  </si>
+  <si>
+    <t>Tela Cadastro: Protótipo para nova versão que permite cadastrar e atualizar vários alunos e horários</t>
+  </si>
+  <si>
+    <t>Tela Cadastro: Visual da tela no Java</t>
+  </si>
+  <si>
+    <t>Tela Cadastro: Leitura de Horários e Alunos do banco</t>
+  </si>
+  <si>
+    <t>Tela Cadastro: Função para deletar horário</t>
+  </si>
+  <si>
+    <t>Tela Cadastro: Função para deletar aluno</t>
+  </si>
+  <si>
+    <t>Tela Cadastro: Função para Inserir  e atualizar (n) horário(s)</t>
+  </si>
+  <si>
+    <t>Tela Cadastro: Função para Inserir e atualizar (n) aluno(s)</t>
   </si>
   <si>
     <t>Tela Cadastro Aluno: Ao cadastrar, verificar se já existe aluno com o mesmo nome para aquela sala</t>
@@ -70,22 +106,10 @@
     <t>Tela Cadastro Aluno: Ao inserir um aluno novo, inserir AlunoAvaliacao para todas as avaliações daquela sala</t>
   </si>
   <si>
-    <t>Tela Cadastro Sala: Mudar Campo de Sala para ComboBox Editável com todas as salas cadastradas</t>
-  </si>
-  <si>
-    <t>Tela Cadastro Sala: Mudar Campo de Dia para ComboBox fixo com os dias da semana*</t>
-  </si>
-  <si>
     <t>Tela Cadastro Sala: Mudar Campo de Hora para spinner fixo de 0 a 24 (step 1) e de 0 a 50 (step 10)*</t>
   </si>
   <si>
-    <t>Tela Principal: Bug de horário</t>
-  </si>
-  <si>
     <t>Tela Principal: Ajustar formatação das datas</t>
-  </si>
-  <si>
-    <t>Tela Principal: Opção para editar data de entrega e nota e salvar atualizações</t>
   </si>
 </sst>
 </file>
@@ -263,7 +287,7 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -405,11 +429,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2067213228"/>
-        <c:axId val="1302093100"/>
+        <c:axId val="1613334374"/>
+        <c:axId val="323151275"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2067213228"/>
+        <c:axId val="1613334374"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -461,10 +485,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1302093100"/>
+        <c:crossAx val="323151275"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1302093100"/>
+        <c:axId val="323151275"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -528,7 +552,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2067213228"/>
+        <c:crossAx val="1613334374"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -810,7 +834,7 @@
       </c>
       <c r="E1" s="4">
         <f>TODAY()</f>
-        <v>45041</v>
+        <v>45047</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -942,7 +966,7 @@
       </c>
       <c r="C5" s="8">
         <f>SUM(J29:J939)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" ref="D5:D25" si="1">SUMIF($K$29:$K$939,B5,$J$29:$J$939)</f>
@@ -950,7 +974,7 @@
       </c>
       <c r="E5" s="8">
         <f>C5-D5</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -984,7 +1008,7 @@
       </c>
       <c r="C6" s="8">
         <f t="shared" ref="C6:C25" si="3">C5-$C$5/($B$2-1)</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="1"/>
@@ -992,7 +1016,7 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" ref="E6:E25" si="4">IF(B6&lt;=$E$1,E5-D6,)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1026,15 +1050,15 @@
       </c>
       <c r="C7" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
-      <c r="E7" s="8" t="str">
+      <c r="E7" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1068,15 +1092,15 @@
       </c>
       <c r="C8" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E8" s="8" t="str">
+      <c r="E8" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1110,15 +1134,15 @@
       </c>
       <c r="C9" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E9" s="8" t="str">
+      <c r="E9" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1152,15 +1176,15 @@
       </c>
       <c r="C10" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="D10" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E10" s="8" t="str">
+      <c r="E10" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1194,15 +1218,15 @@
       </c>
       <c r="C11" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
-      <c r="E11" s="8" t="str">
+      <c r="E11" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1236,15 +1260,15 @@
       </c>
       <c r="C12" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12" s="8" t="str">
+      <c r="E12" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1278,7 +1302,7 @@
       </c>
       <c r="C13" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D13" s="8">
         <f t="shared" si="1"/>
@@ -1320,7 +1344,7 @@
       </c>
       <c r="C14" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="D14" s="8">
         <f t="shared" si="1"/>
@@ -1362,7 +1386,7 @@
       </c>
       <c r="C15" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="1"/>
@@ -1404,7 +1428,7 @@
       </c>
       <c r="C16" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="1"/>
@@ -1446,7 +1470,7 @@
       </c>
       <c r="C17" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="1"/>
@@ -1488,7 +1512,7 @@
       </c>
       <c r="C18" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="D18" s="8">
         <f t="shared" si="1"/>
@@ -1530,7 +1554,7 @@
       </c>
       <c r="C19" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19" s="8">
         <f t="shared" si="1"/>
@@ -1572,7 +1596,7 @@
       </c>
       <c r="C20" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D20" s="8">
         <f t="shared" si="1"/>
@@ -1614,7 +1638,7 @@
       </c>
       <c r="C21" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="8">
         <f t="shared" si="1"/>
@@ -1656,7 +1680,7 @@
       </c>
       <c r="C22" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D22" s="8">
         <f t="shared" si="1"/>
@@ -1698,7 +1722,7 @@
       </c>
       <c r="C23" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="8">
         <f t="shared" si="1"/>
@@ -1740,7 +1764,7 @@
       </c>
       <c r="C24" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D24" s="8">
         <f t="shared" si="1"/>
@@ -1945,9 +1969,15 @@
       <c r="H30" s="19">
         <v>45040.0</v>
       </c>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="21"/>
+      <c r="I30" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="K30" s="21">
+        <v>45042.0</v>
+      </c>
       <c r="L30" s="6"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -1965,10 +1995,16 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="22"/>
-      <c r="H31" s="15"/>
+      <c r="A31" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="19">
+        <v>45040.0</v>
+      </c>
       <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
+      <c r="J31" s="20">
+        <v>2.0</v>
+      </c>
       <c r="K31" s="17"/>
       <c r="L31" s="6"/>
       <c r="M31" s="3"/>
@@ -1988,7 +2024,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2000,7 +2036,9 @@
         <v>45040.0</v>
       </c>
       <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
+      <c r="J32" s="20">
+        <v>2.0</v>
+      </c>
       <c r="K32" s="21"/>
       <c r="L32" s="6"/>
       <c r="M32" s="3"/>
@@ -2048,7 +2086,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -2059,9 +2097,15 @@
       <c r="H34" s="19">
         <v>45040.0</v>
       </c>
-      <c r="I34" s="20"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="21"/>
+      <c r="I34" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="K34" s="21">
+        <v>45046.0</v>
+      </c>
       <c r="L34" s="6"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -2079,14 +2123,18 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="23"/>
+      <c r="A35" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="25"/>
+      <c r="H35" s="27">
+        <v>45040.0</v>
+      </c>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
       <c r="K35" s="21"/>
@@ -2108,7 +2156,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -2139,7 +2187,7 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="14"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -2168,7 +2216,7 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="23" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -2199,14 +2247,18 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="14"/>
+      <c r="A39" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="12"/>
-      <c r="H39" s="15"/>
+      <c r="H39" s="19">
+        <v>45040.0</v>
+      </c>
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
       <c r="K39" s="17"/>
@@ -2228,7 +2280,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="23" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2236,7 +2288,7 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="25">
+      <c r="H40" s="27">
         <v>45040.0</v>
       </c>
       <c r="I40" s="20"/>
@@ -2259,7 +2311,9 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="14"/>
+      <c r="A41" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -2288,7 +2342,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="23" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -2319,7 +2373,9 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="14"/>
+      <c r="A43" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -2348,7 +2404,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="23" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -2407,9 +2463,7 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="A46" s="23"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -2467,9 +2521,7 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="A48" s="23"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -2528,7 +2580,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="23" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -2559,7 +2611,9 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="14"/>
+      <c r="A51" s="24" t="s">
+        <v>30</v>
+      </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -2615,7 +2669,9 @@
       <c r="Z52" s="3"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="14"/>
+      <c r="A53" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -2671,7 +2727,9 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="14"/>
+      <c r="A55" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>

--- a/docs/Sprint03/Burndown_Sprint_03.xlsx
+++ b/docs/Sprint03/Burndown_Sprint_03.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Data de início:</t>
   </si>
@@ -64,10 +64,13 @@
     <t>Pop-Up Avaliação: Mostrar Sala Atual a qual a avaliação será cadastrada</t>
   </si>
   <si>
+    <t xml:space="preserve">Jean </t>
+  </si>
+  <si>
     <t>Pop-Up Avaliação: Ao cadastrar, verificar se já não existe avaliação com o mesmo nome para aquela sala</t>
   </si>
   <si>
-    <t>Tela Principal: Função de Atualizar Data de Entrega e Notas*</t>
+    <t>Tela Principal: Função de Atualizar Data de Entrega e Notas</t>
   </si>
   <si>
     <t>Alexandre</t>
@@ -76,16 +79,28 @@
     <t>Tela Principal: Função para exibir rendimento geral da sala</t>
   </si>
   <si>
-    <t>Tela Principal: Opção para ordenar a ordem que as avaliações aparecem</t>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>Tela Principal: Opção para ordenar a lista de avaliações a partir da avaliação mais antiga</t>
   </si>
   <si>
     <t>Tela Cadastro: Protótipo para nova versão que permite cadastrar e atualizar vários alunos e horários</t>
   </si>
   <si>
+    <t>Vitor</t>
+  </si>
+  <si>
     <t>Tela Cadastro: Visual da tela no Java</t>
   </si>
   <si>
+    <t>Alita</t>
+  </si>
+  <si>
     <t>Tela Cadastro: Leitura de Horários e Alunos do banco</t>
+  </si>
+  <si>
+    <t>Jean</t>
   </si>
   <si>
     <t>Tela Cadastro: Função para deletar horário</t>
@@ -106,10 +121,28 @@
     <t>Tela Cadastro Aluno: Ao inserir um aluno novo, inserir AlunoAvaliacao para todas as avaliações daquela sala</t>
   </si>
   <si>
-    <t>Tela Cadastro Sala: Mudar Campo de Hora para spinner fixo de 0 a 24 (step 1) e de 0 a 50 (step 10)*</t>
+    <t>Michael</t>
   </si>
   <si>
     <t>Tela Principal: Ajustar formatação das datas</t>
+  </si>
+  <si>
+    <t>Tela Principal: Mostrar Status da avaliação (Encerrado/Aberto) na lista de Avaliações</t>
+  </si>
+  <si>
+    <t>Tela Principal: Radio Button para ordenar lista de AlunoAvaliacao por Nome de aluno ou Data de Entrega</t>
+  </si>
+  <si>
+    <t>Ao trocar de telas, manter a mesma sala no combo</t>
+  </si>
+  <si>
+    <t>Bug: Tabela AlunoAvaliacao mostra status incorreto de atrasado</t>
+  </si>
+  <si>
+    <t>04/24/2023</t>
+  </si>
+  <si>
+    <t>Bug: Ao minimizar tela, sistema para de exibir informações relacionadas a Avaliação selecionada</t>
   </si>
 </sst>
 </file>
@@ -223,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -303,9 +336,6 @@
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -429,11 +459,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1613334374"/>
-        <c:axId val="323151275"/>
+        <c:axId val="2970991"/>
+        <c:axId val="1598230643"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1613334374"/>
+        <c:axId val="2970991"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -485,10 +515,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="323151275"/>
+        <c:crossAx val="1598230643"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="323151275"/>
+        <c:axId val="1598230643"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -552,7 +582,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1613334374"/>
+        <c:crossAx val="2970991"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -834,7 +864,7 @@
       </c>
       <c r="E1" s="4">
         <f>TODAY()</f>
-        <v>45047</v>
+        <v>45049</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -966,7 +996,7 @@
       </c>
       <c r="C5" s="8">
         <f>SUM(J29:J939)</f>
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" ref="D5:D25" si="1">SUMIF($K$29:$K$939,B5,$J$29:$J$939)</f>
@@ -974,7 +1004,7 @@
       </c>
       <c r="E5" s="8">
         <f>C5-D5</f>
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1008,7 +1038,7 @@
       </c>
       <c r="C6" s="8">
         <f t="shared" ref="C6:C25" si="3">C5-$C$5/($B$2-1)</f>
-        <v>9.5</v>
+        <v>70.3</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="1"/>
@@ -1016,7 +1046,7 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" ref="E6:E25" si="4">IF(B6&lt;=$E$1,E5-D6,)</f>
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1050,7 +1080,7 @@
       </c>
       <c r="C7" s="8">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>66.6</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="1"/>
@@ -1058,7 +1088,7 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1092,7 +1122,7 @@
       </c>
       <c r="C8" s="8">
         <f t="shared" si="3"/>
-        <v>8.5</v>
+        <v>62.9</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="1"/>
@@ -1100,7 +1130,7 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1134,7 +1164,7 @@
       </c>
       <c r="C9" s="8">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>59.2</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="1"/>
@@ -1142,7 +1172,7 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1176,7 +1206,7 @@
       </c>
       <c r="C10" s="8">
         <f t="shared" si="3"/>
-        <v>7.5</v>
+        <v>55.5</v>
       </c>
       <c r="D10" s="8">
         <f t="shared" si="1"/>
@@ -1184,7 +1214,7 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1218,7 +1248,7 @@
       </c>
       <c r="C11" s="8">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>51.8</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="1"/>
@@ -1226,7 +1256,7 @@
       </c>
       <c r="E11" s="8">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1260,7 +1290,7 @@
       </c>
       <c r="C12" s="8">
         <f t="shared" si="3"/>
-        <v>6.5</v>
+        <v>48.1</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" si="1"/>
@@ -1268,7 +1298,7 @@
       </c>
       <c r="E12" s="8">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1302,15 +1332,15 @@
       </c>
       <c r="C13" s="8">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>44.4</v>
       </c>
       <c r="D13" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
-      <c r="E13" s="8" t="str">
+      <c r="E13" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>60</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1344,15 +1374,15 @@
       </c>
       <c r="C14" s="8">
         <f t="shared" si="3"/>
-        <v>5.5</v>
+        <v>40.7</v>
       </c>
       <c r="D14" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
-      <c r="E14" s="8" t="str">
+      <c r="E14" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>55</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1386,7 +1416,7 @@
       </c>
       <c r="C15" s="8">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="1"/>
@@ -1428,7 +1458,7 @@
       </c>
       <c r="C16" s="8">
         <f t="shared" si="3"/>
-        <v>4.5</v>
+        <v>33.3</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="1"/>
@@ -1470,7 +1500,7 @@
       </c>
       <c r="C17" s="8">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>29.6</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="1"/>
@@ -1512,7 +1542,7 @@
       </c>
       <c r="C18" s="8">
         <f t="shared" si="3"/>
-        <v>3.5</v>
+        <v>25.9</v>
       </c>
       <c r="D18" s="8">
         <f t="shared" si="1"/>
@@ -1554,7 +1584,7 @@
       </c>
       <c r="C19" s="8">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>22.2</v>
       </c>
       <c r="D19" s="8">
         <f t="shared" si="1"/>
@@ -1596,7 +1626,7 @@
       </c>
       <c r="C20" s="8">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>18.5</v>
       </c>
       <c r="D20" s="8">
         <f t="shared" si="1"/>
@@ -1638,7 +1668,7 @@
       </c>
       <c r="C21" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>14.8</v>
       </c>
       <c r="D21" s="8">
         <f t="shared" si="1"/>
@@ -1680,7 +1710,7 @@
       </c>
       <c r="C22" s="8">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v>11.1</v>
       </c>
       <c r="D22" s="8">
         <f t="shared" si="1"/>
@@ -1722,7 +1752,7 @@
       </c>
       <c r="C23" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>7.4</v>
       </c>
       <c r="D23" s="8">
         <f t="shared" si="1"/>
@@ -1764,7 +1794,7 @@
       </c>
       <c r="C24" s="8">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="D24" s="8">
         <f t="shared" si="1"/>
@@ -2001,7 +2031,9 @@
       <c r="H31" s="19">
         <v>45040.0</v>
       </c>
-      <c r="I31" s="16"/>
+      <c r="I31" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="J31" s="20">
         <v>2.0</v>
       </c>
@@ -2024,7 +2056,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2035,9 +2067,11 @@
       <c r="H32" s="19">
         <v>45040.0</v>
       </c>
-      <c r="I32" s="20"/>
+      <c r="I32" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="J32" s="20">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K32" s="21"/>
       <c r="L32" s="6"/>
@@ -2086,7 +2120,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -2098,7 +2132,7 @@
         <v>45040.0</v>
       </c>
       <c r="I34" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J34" s="26">
         <v>5.0</v>
@@ -2124,7 +2158,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -2135,8 +2169,12 @@
       <c r="H35" s="27">
         <v>45040.0</v>
       </c>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
+      <c r="I35" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="20">
+        <v>3.0</v>
+      </c>
       <c r="K35" s="21"/>
       <c r="L35" s="6"/>
       <c r="M35" s="3"/>
@@ -2156,7 +2194,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -2167,8 +2205,12 @@
       <c r="H36" s="19">
         <v>45040.0</v>
       </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
+      <c r="I36" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="20">
+        <v>2.0</v>
+      </c>
       <c r="K36" s="21"/>
       <c r="L36" s="6"/>
       <c r="M36" s="3"/>
@@ -2216,7 +2258,7 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -2227,9 +2269,15 @@
       <c r="H38" s="25">
         <v>45040.0</v>
       </c>
-      <c r="I38" s="20"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="21"/>
+      <c r="I38" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" s="20">
+        <v>8.0</v>
+      </c>
+      <c r="K38" s="21">
+        <v>45048.0</v>
+      </c>
       <c r="L38" s="6"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
@@ -2248,7 +2296,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="24" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -2259,9 +2307,15 @@
       <c r="H39" s="19">
         <v>45040.0</v>
       </c>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="17"/>
+      <c r="I39" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" s="20">
+        <v>5.0</v>
+      </c>
+      <c r="K39" s="21">
+        <v>45049.0</v>
+      </c>
       <c r="L39" s="6"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -2280,7 +2334,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2291,8 +2345,12 @@
       <c r="H40" s="27">
         <v>45040.0</v>
       </c>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
+      <c r="I40" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="20">
+        <v>5.0</v>
+      </c>
       <c r="K40" s="21"/>
       <c r="L40" s="6"/>
       <c r="M40" s="3"/>
@@ -2312,7 +2370,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="24" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -2320,9 +2378,15 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
+      <c r="H41" s="19">
+        <v>45040.0</v>
+      </c>
+      <c r="I41" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" s="20">
+        <v>8.0</v>
+      </c>
       <c r="K41" s="17"/>
       <c r="L41" s="6"/>
       <c r="M41" s="3"/>
@@ -2342,7 +2406,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="23" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -2350,11 +2414,15 @@
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="25">
+      <c r="H42" s="27">
         <v>45040.0</v>
       </c>
-      <c r="I42" s="20"/>
-      <c r="J42" s="16"/>
+      <c r="I42" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" s="20">
+        <v>3.0</v>
+      </c>
       <c r="K42" s="21"/>
       <c r="L42" s="6"/>
       <c r="M42" s="3"/>
@@ -2374,7 +2442,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="24" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -2382,9 +2450,15 @@
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="12"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
+      <c r="H43" s="19">
+        <v>45040.0</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" s="20">
+        <v>5.0</v>
+      </c>
       <c r="K43" s="17"/>
       <c r="L43" s="6"/>
       <c r="M43" s="3"/>
@@ -2404,7 +2478,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="23" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -2415,8 +2489,12 @@
       <c r="H44" s="25">
         <v>45040.0</v>
       </c>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
+      <c r="I44" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" s="20">
+        <v>3.0</v>
+      </c>
       <c r="K44" s="21"/>
       <c r="L44" s="6"/>
       <c r="M44" s="3"/>
@@ -2463,7 +2541,9 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="23"/>
+      <c r="A46" s="23" t="s">
+        <v>34</v>
+      </c>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -2473,8 +2553,12 @@
       <c r="H46" s="27">
         <v>45040.0</v>
       </c>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
+      <c r="I46" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" s="20">
+        <v>3.0</v>
+      </c>
       <c r="K46" s="21"/>
       <c r="L46" s="6"/>
       <c r="M46" s="3"/>
@@ -2493,16 +2577,24 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="14"/>
+      <c r="A47" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="12"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
+      <c r="H47" s="19">
+        <v>45040.0</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J47" s="20">
+        <v>5.0</v>
+      </c>
       <c r="K47" s="17"/>
       <c r="L47" s="6"/>
       <c r="M47" s="3"/>
@@ -2528,9 +2620,7 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="12"/>
-      <c r="H48" s="27">
-        <v>45040.0</v>
-      </c>
+      <c r="H48" s="27"/>
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
       <c r="K48" s="21"/>
@@ -2551,16 +2641,24 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="14"/>
+      <c r="A49" s="24" t="s">
+        <v>37</v>
+      </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="12"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
+      <c r="H49" s="19">
+        <v>45040.0</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J49" s="20">
+        <v>2.0</v>
+      </c>
       <c r="K49" s="17"/>
       <c r="L49" s="6"/>
       <c r="M49" s="3"/>
@@ -2580,7 +2678,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="23" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -2591,8 +2689,12 @@
       <c r="H50" s="27">
         <v>45040.0</v>
       </c>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
+      <c r="I50" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" s="20">
+        <v>2.0</v>
+      </c>
       <c r="K50" s="21"/>
       <c r="L50" s="6"/>
       <c r="M50" s="3"/>
@@ -2612,7 +2714,7 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="24" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -2620,9 +2722,15 @@
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="12"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
+      <c r="H51" s="19">
+        <v>45040.0</v>
+      </c>
+      <c r="I51" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J51" s="20">
+        <v>3.0</v>
+      </c>
       <c r="K51" s="17"/>
       <c r="L51" s="6"/>
       <c r="M51" s="3"/>
@@ -2641,16 +2749,24 @@
       <c r="Z51" s="3"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="23"/>
+      <c r="A52" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="12"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="16"/>
+      <c r="H52" s="19">
+        <v>45040.0</v>
+      </c>
+      <c r="I52" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="20">
+        <v>2.0</v>
+      </c>
       <c r="K52" s="21"/>
       <c r="L52" s="6"/>
       <c r="M52" s="3"/>
@@ -2669,9 +2785,7 @@
       <c r="Z52" s="3"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="24" t="s">
-        <v>31</v>
-      </c>
+      <c r="A53" s="24"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -2727,8 +2841,8 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="24" t="s">
-        <v>32</v>
+      <c r="A55" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -2736,9 +2850,15 @@
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="12"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
+      <c r="H55" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I55" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="20">
+        <v>2.0</v>
+      </c>
       <c r="K55" s="17"/>
       <c r="L55" s="6"/>
       <c r="M55" s="3"/>
@@ -2757,16 +2877,24 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="23"/>
+      <c r="A56" s="23" t="s">
+        <v>43</v>
+      </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="12"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
+      <c r="H56" s="19">
+        <v>45040.0</v>
+      </c>
+      <c r="I56" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" s="20">
+        <v>2.0</v>
+      </c>
       <c r="K56" s="21"/>
       <c r="L56" s="6"/>
       <c r="M56" s="3"/>
@@ -2981,7 +3109,7 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="29"/>
+      <c r="A64" s="28"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -3037,7 +3165,7 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="29"/>
+      <c r="A66" s="28"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -3087,7 +3215,7 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="29"/>
+      <c r="A68" s="28"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -3115,7 +3243,7 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="29"/>
+      <c r="A69" s="28"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -3143,7 +3271,7 @@
       <c r="Z69" s="3"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="29"/>
+      <c r="A70" s="28"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -3171,7 +3299,7 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="29"/>
+      <c r="A71" s="28"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>

--- a/docs/Sprint03/Burndown_Sprint_03.xlsx
+++ b/docs/Sprint03/Burndown_Sprint_03.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>Data de início:</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Tela Principal: Função para exibir rendimento geral da sala</t>
   </si>
   <si>
-    <t>Jonas</t>
-  </si>
-  <si>
     <t>Tela Principal: Opção para ordenar a lista de avaliações a partir da avaliação mais antiga</t>
   </si>
   <si>
@@ -97,22 +94,34 @@
     <t>Alita</t>
   </si>
   <si>
-    <t>Tela Cadastro: Leitura de Horários e Alunos do banco</t>
+    <t>Tela Cadastro: Leitura de Alunos do banco</t>
   </si>
   <si>
     <t>Jean</t>
   </si>
   <si>
+    <t>Tela Cadastro: Leitura de Horários do banco</t>
+  </si>
+  <si>
     <t>Tela Cadastro: Função para deletar horário</t>
   </si>
   <si>
-    <t>Tela Cadastro: Função para deletar aluno</t>
+    <t>Tela Cadastro: Adicionar atributo 'status' na tabela de aluno e realizar as devidas atualizações no sistema</t>
+  </si>
+  <si>
+    <t>Tela Cadastro: Função para deletar aluno logicamente</t>
   </si>
   <si>
     <t>Tela Cadastro: Função para Inserir  e atualizar (n) horário(s)</t>
   </si>
   <si>
+    <t>Jonas*</t>
+  </si>
+  <si>
     <t>Tela Cadastro: Função para Inserir e atualizar (n) aluno(s)</t>
+  </si>
+  <si>
+    <t>Jonas</t>
   </si>
   <si>
     <t>Tela Cadastro Aluno: Ao cadastrar, verificar se já existe aluno com o mesmo nome para aquela sala</t>
@@ -130,7 +139,10 @@
     <t>Tela Principal: Mostrar Status da avaliação (Encerrado/Aberto) na lista de Avaliações</t>
   </si>
   <si>
-    <t>Tela Principal: Radio Button para ordenar lista de AlunoAvaliacao por Nome de aluno ou Data de Entrega</t>
+    <t>Tela Principal: Inserir Radio Button para ordenar lista de AlunoAvaliacao por Nome de aluno ou Data de Entrega</t>
+  </si>
+  <si>
+    <t>Tela Principal: Ordenar lista de AlunoAvaliacao por Nome de aluno ou Data de Entrega de acordo com radio button</t>
   </si>
   <si>
     <t>Ao trocar de telas, manter a mesma sala no combo</t>
@@ -149,11 +161,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="MM/DD/YYYY"/>
     <numFmt numFmtId="165" formatCode="D/M/YY"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -176,10 +189,6 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="&quot;docs-Fira Sans&quot;"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -296,18 +305,6 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -319,14 +316,17 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -334,8 +334,17 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -459,11 +468,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2970991"/>
-        <c:axId val="1598230643"/>
+        <c:axId val="271739269"/>
+        <c:axId val="1997495203"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2970991"/>
+        <c:axId val="271739269"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -515,10 +524,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1598230643"/>
+        <c:crossAx val="1997495203"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1598230643"/>
+        <c:axId val="1997495203"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -582,7 +591,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2970991"/>
+        <c:crossAx val="271739269"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -864,7 +873,7 @@
       </c>
       <c r="E1" s="4">
         <f>TODAY()</f>
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -996,7 +1005,7 @@
       </c>
       <c r="C5" s="8">
         <f>SUM(J29:J939)</f>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" ref="D5:D25" si="1">SUMIF($K$29:$K$939,B5,$J$29:$J$939)</f>
@@ -1004,7 +1013,7 @@
       </c>
       <c r="E5" s="8">
         <f>C5-D5</f>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1038,7 +1047,7 @@
       </c>
       <c r="C6" s="8">
         <f t="shared" ref="C6:C25" si="3">C5-$C$5/($B$2-1)</f>
-        <v>70.3</v>
+        <v>76</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="1"/>
@@ -1046,7 +1055,7 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" ref="E6:E25" si="4">IF(B6&lt;=$E$1,E5-D6,)</f>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1080,7 +1089,7 @@
       </c>
       <c r="C7" s="8">
         <f t="shared" si="3"/>
-        <v>66.6</v>
+        <v>72</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="1"/>
@@ -1088,7 +1097,7 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" si="4"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1122,7 +1131,7 @@
       </c>
       <c r="C8" s="8">
         <f t="shared" si="3"/>
-        <v>62.9</v>
+        <v>68</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="1"/>
@@ -1130,7 +1139,7 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" si="4"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1164,7 +1173,7 @@
       </c>
       <c r="C9" s="8">
         <f t="shared" si="3"/>
-        <v>59.2</v>
+        <v>64</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="1"/>
@@ -1172,7 +1181,7 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" si="4"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1206,7 +1215,7 @@
       </c>
       <c r="C10" s="8">
         <f t="shared" si="3"/>
-        <v>55.5</v>
+        <v>60</v>
       </c>
       <c r="D10" s="8">
         <f t="shared" si="1"/>
@@ -1214,7 +1223,7 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" si="4"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1248,7 +1257,7 @@
       </c>
       <c r="C11" s="8">
         <f t="shared" si="3"/>
-        <v>51.8</v>
+        <v>56</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="1"/>
@@ -1256,7 +1265,7 @@
       </c>
       <c r="E11" s="8">
         <f t="shared" si="4"/>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1290,7 +1299,7 @@
       </c>
       <c r="C12" s="8">
         <f t="shared" si="3"/>
-        <v>48.1</v>
+        <v>52</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" si="1"/>
@@ -1298,7 +1307,7 @@
       </c>
       <c r="E12" s="8">
         <f t="shared" si="4"/>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1332,7 +1341,7 @@
       </c>
       <c r="C13" s="8">
         <f t="shared" si="3"/>
-        <v>44.4</v>
+        <v>48</v>
       </c>
       <c r="D13" s="8">
         <f t="shared" si="1"/>
@@ -1340,7 +1349,7 @@
       </c>
       <c r="E13" s="8">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1374,7 +1383,7 @@
       </c>
       <c r="C14" s="8">
         <f t="shared" si="3"/>
-        <v>40.7</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8">
         <f t="shared" si="1"/>
@@ -1382,7 +1391,7 @@
       </c>
       <c r="E14" s="8">
         <f t="shared" si="4"/>
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1416,15 +1425,15 @@
       </c>
       <c r="C15" s="8">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
-      <c r="E15" s="8" t="str">
+      <c r="E15" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>56</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1458,15 +1467,15 @@
       </c>
       <c r="C16" s="8">
         <f t="shared" si="3"/>
-        <v>33.3</v>
+        <v>36</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="8" t="str">
+      <c r="E16" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>56</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1500,15 +1509,15 @@
       </c>
       <c r="C17" s="8">
         <f t="shared" si="3"/>
-        <v>29.6</v>
+        <v>32</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E17" s="8" t="str">
+      <c r="E17" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>56</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1542,15 +1551,15 @@
       </c>
       <c r="C18" s="8">
         <f t="shared" si="3"/>
-        <v>25.9</v>
+        <v>28</v>
       </c>
       <c r="D18" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
-      <c r="E18" s="8" t="str">
+      <c r="E18" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>50</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1584,15 +1593,15 @@
       </c>
       <c r="C19" s="8">
         <f t="shared" si="3"/>
-        <v>22.2</v>
+        <v>24</v>
       </c>
       <c r="D19" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
-      <c r="E19" s="8" t="str">
+      <c r="E19" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>43</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1626,15 +1635,15 @@
       </c>
       <c r="C20" s="8">
         <f t="shared" si="3"/>
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="D20" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E20" s="8" t="str">
+      <c r="E20" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>43</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1668,15 +1677,15 @@
       </c>
       <c r="C21" s="8">
         <f t="shared" si="3"/>
-        <v>14.8</v>
+        <v>16</v>
       </c>
       <c r="D21" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
-      <c r="E21" s="8" t="str">
+      <c r="E21" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>30</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1710,7 +1719,7 @@
       </c>
       <c r="C22" s="8">
         <f t="shared" si="3"/>
-        <v>11.1</v>
+        <v>12</v>
       </c>
       <c r="D22" s="8">
         <f t="shared" si="1"/>
@@ -1752,7 +1761,7 @@
       </c>
       <c r="C23" s="8">
         <f t="shared" si="3"/>
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="D23" s="8">
         <f t="shared" si="1"/>
@@ -1794,7 +1803,7 @@
       </c>
       <c r="C24" s="8">
         <f t="shared" si="3"/>
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D24" s="8">
         <f t="shared" si="1"/>
@@ -1965,17 +1974,27 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="14"/>
+      <c r="A29" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="17"/>
+      <c r="H29" s="15">
+        <v>45040.0</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="K29" s="17">
+        <v>45042.0</v>
+      </c>
       <c r="L29" s="6"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -1994,20 +2013,18 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="15">
         <v>45040.0</v>
       </c>
-      <c r="I30" s="20" t="s">
-        <v>15</v>
+      <c r="I30" s="16" t="s">
+        <v>17</v>
       </c>
-      <c r="J30" s="20">
-        <v>1.0</v>
+      <c r="J30" s="16">
+        <v>2.0</v>
       </c>
-      <c r="K30" s="21">
-        <v>45042.0</v>
-      </c>
+      <c r="K30" s="17"/>
       <c r="L30" s="6"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -2025,19 +2042,21 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="22" t="s">
-        <v>16</v>
+      <c r="A31" s="19" t="s">
+        <v>18</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H31" s="15">
         <v>45040.0</v>
       </c>
-      <c r="I31" s="20" t="s">
-        <v>17</v>
+      <c r="I31" s="16" t="s">
+        <v>15</v>
       </c>
-      <c r="J31" s="20">
-        <v>2.0</v>
+      <c r="J31" s="16">
+        <v>3.0</v>
       </c>
-      <c r="K31" s="17"/>
+      <c r="K31" s="17">
+        <v>45050.0</v>
+      </c>
       <c r="L31" s="6"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -2055,24 +2074,16 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="23" t="s">
-        <v>18</v>
-      </c>
+      <c r="A32" s="20"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="19">
-        <v>45040.0</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="20">
-        <v>3.0</v>
-      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
       <c r="K32" s="21"/>
       <c r="L32" s="6"/>
       <c r="M32" s="3"/>
@@ -2091,17 +2102,27 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="24"/>
+      <c r="A33" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="21"/>
+      <c r="H33" s="22">
+        <v>45040.0</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="K33" s="17">
+        <v>45046.0</v>
+      </c>
       <c r="L33" s="6"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
@@ -2119,8 +2140,8 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="23" t="s">
-        <v>19</v>
+      <c r="A34" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -2128,18 +2149,16 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="12"/>
-      <c r="H34" s="19">
+      <c r="H34" s="15">
         <v>45040.0</v>
       </c>
-      <c r="I34" s="20" t="s">
+      <c r="I34" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="26">
-        <v>5.0</v>
+      <c r="J34" s="23">
+        <v>3.0</v>
       </c>
-      <c r="K34" s="21">
-        <v>45046.0</v>
-      </c>
+      <c r="K34" s="17"/>
       <c r="L34" s="6"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -2157,8 +2176,8 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="23" t="s">
-        <v>21</v>
+      <c r="A35" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -2166,16 +2185,18 @@
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="27">
+      <c r="H35" s="22">
         <v>45040.0</v>
       </c>
-      <c r="I35" s="20" t="s">
-        <v>22</v>
+      <c r="I35" s="16" t="s">
+        <v>15</v>
       </c>
-      <c r="J35" s="20">
-        <v>3.0</v>
+      <c r="J35" s="16">
+        <v>2.0</v>
       </c>
-      <c r="K35" s="21"/>
+      <c r="K35" s="17">
+        <v>45050.0</v>
+      </c>
       <c r="L35" s="6"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
@@ -2193,25 +2214,17 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="A36" s="20"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="12"/>
-      <c r="H36" s="19">
-        <v>45040.0</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="K36" s="21"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="17"/>
       <c r="L36" s="6"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
@@ -2229,17 +2242,27 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="24"/>
+      <c r="A37" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="17"/>
+      <c r="H37" s="15">
+        <v>45040.0</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="16">
+        <v>8.0</v>
+      </c>
+      <c r="K37" s="17">
+        <v>45048.0</v>
+      </c>
       <c r="L37" s="6"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
@@ -2257,8 +2280,8 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="23" t="s">
-        <v>24</v>
+      <c r="A38" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -2266,17 +2289,17 @@
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="25">
+      <c r="H38" s="22">
         <v>45040.0</v>
       </c>
-      <c r="I38" s="20" t="s">
-        <v>25</v>
+      <c r="I38" s="16" t="s">
+        <v>26</v>
       </c>
-      <c r="J38" s="20">
-        <v>8.0</v>
+      <c r="J38" s="16">
+        <v>5.0</v>
       </c>
-      <c r="K38" s="21">
-        <v>45048.0</v>
+      <c r="K38" s="17">
+        <v>45049.0</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="3"/>
@@ -2295,8 +2318,8 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="24" t="s">
-        <v>26</v>
+      <c r="A39" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -2304,17 +2327,17 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="12"/>
-      <c r="H39" s="19">
+      <c r="H39" s="15">
         <v>45040.0</v>
       </c>
-      <c r="I39" s="20" t="s">
-        <v>27</v>
+      <c r="I39" s="16" t="s">
+        <v>28</v>
       </c>
-      <c r="J39" s="20">
+      <c r="J39" s="16">
         <v>5.0</v>
       </c>
-      <c r="K39" s="21">
-        <v>45049.0</v>
+      <c r="K39" s="17">
+        <v>45054.0</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="3"/>
@@ -2333,8 +2356,8 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="23" t="s">
-        <v>28</v>
+      <c r="A40" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2342,16 +2365,18 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="27">
+      <c r="H40" s="22">
         <v>45040.0</v>
       </c>
-      <c r="I40" s="20" t="s">
-        <v>29</v>
+      <c r="I40" s="16" t="s">
+        <v>28</v>
       </c>
-      <c r="J40" s="20">
+      <c r="J40" s="16">
         <v>5.0</v>
       </c>
-      <c r="K40" s="21"/>
+      <c r="K40" s="17">
+        <v>45056.0</v>
+      </c>
       <c r="L40" s="6"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
@@ -2369,7 +2394,7 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="11"/>
@@ -2378,16 +2403,16 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="19">
+      <c r="H41" s="15">
         <v>45040.0</v>
       </c>
-      <c r="I41" s="20" t="s">
-        <v>25</v>
+      <c r="I41" s="16" t="s">
+        <v>24</v>
       </c>
-      <c r="J41" s="20">
-        <v>8.0</v>
+      <c r="J41" s="16">
+        <v>5.0</v>
       </c>
-      <c r="K41" s="17"/>
+      <c r="K41" s="24"/>
       <c r="L41" s="6"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -2405,7 +2430,7 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B42" s="11"/>
@@ -2414,16 +2439,16 @@
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="27">
+      <c r="H42" s="22">
         <v>45040.0</v>
       </c>
-      <c r="I42" s="20" t="s">
-        <v>25</v>
+      <c r="I42" s="16" t="s">
+        <v>24</v>
       </c>
-      <c r="J42" s="20">
+      <c r="J42" s="16">
         <v>3.0</v>
       </c>
-      <c r="K42" s="21"/>
+      <c r="K42" s="17"/>
       <c r="L42" s="6"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
@@ -2441,7 +2466,7 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B43" s="11"/>
@@ -2450,16 +2475,16 @@
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="12"/>
-      <c r="H43" s="19">
+      <c r="H43" s="15">
         <v>45040.0</v>
       </c>
-      <c r="I43" s="20" t="s">
-        <v>22</v>
+      <c r="I43" s="16" t="s">
+        <v>24</v>
       </c>
-      <c r="J43" s="20">
-        <v>5.0</v>
+      <c r="J43" s="16">
+        <v>2.0</v>
       </c>
-      <c r="K43" s="17"/>
+      <c r="K43" s="24"/>
       <c r="L43" s="6"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
@@ -2477,7 +2502,7 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="20" t="s">
         <v>33</v>
       </c>
       <c r="B44" s="11"/>
@@ -2486,16 +2511,16 @@
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="12"/>
-      <c r="H44" s="25">
+      <c r="H44" s="22">
         <v>45040.0</v>
       </c>
-      <c r="I44" s="20" t="s">
-        <v>22</v>
+      <c r="I44" s="16" t="s">
+        <v>34</v>
       </c>
-      <c r="J44" s="20">
-        <v>3.0</v>
+      <c r="J44" s="16">
+        <v>5.0</v>
       </c>
-      <c r="K44" s="21"/>
+      <c r="K44" s="17"/>
       <c r="L44" s="6"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
@@ -2513,17 +2538,25 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="14"/>
+      <c r="A45" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="12"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="17"/>
+      <c r="H45" s="15">
+        <v>45040.0</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J45" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="K45" s="24"/>
       <c r="L45" s="6"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -2541,8 +2574,8 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="23" t="s">
-        <v>34</v>
+      <c r="A46" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -2550,16 +2583,16 @@
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="12"/>
-      <c r="H46" s="27">
+      <c r="H46" s="22">
         <v>45040.0</v>
       </c>
-      <c r="I46" s="20" t="s">
-        <v>29</v>
+      <c r="I46" s="16" t="s">
+        <v>28</v>
       </c>
-      <c r="J46" s="20">
+      <c r="J46" s="16">
         <v>3.0</v>
       </c>
-      <c r="K46" s="21"/>
+      <c r="K46" s="17"/>
       <c r="L46" s="6"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
@@ -2577,8 +2610,8 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="23" t="s">
-        <v>35</v>
+      <c r="A47" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -2586,16 +2619,18 @@
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="12"/>
-      <c r="H47" s="19">
+      <c r="H47" s="15">
         <v>45040.0</v>
       </c>
-      <c r="I47" s="20" t="s">
-        <v>36</v>
+      <c r="I47" s="16" t="s">
+        <v>39</v>
       </c>
-      <c r="J47" s="20">
+      <c r="J47" s="16">
         <v>5.0</v>
       </c>
-      <c r="K47" s="17"/>
+      <c r="K47" s="17">
+        <v>45056.0</v>
+      </c>
       <c r="L47" s="6"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -2613,17 +2648,17 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="23"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="12"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="21"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="17"/>
       <c r="L48" s="6"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
@@ -2641,8 +2676,8 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="24" t="s">
-        <v>37</v>
+      <c r="A49" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -2650,16 +2685,16 @@
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="12"/>
-      <c r="H49" s="19">
+      <c r="H49" s="15">
         <v>45040.0</v>
       </c>
-      <c r="I49" s="20" t="s">
-        <v>22</v>
+      <c r="I49" s="16" t="s">
+        <v>36</v>
       </c>
-      <c r="J49" s="20">
+      <c r="J49" s="16">
         <v>2.0</v>
       </c>
-      <c r="K49" s="17"/>
+      <c r="K49" s="24"/>
       <c r="L49" s="6"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
@@ -2677,8 +2712,8 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="23" t="s">
-        <v>38</v>
+      <c r="A50" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -2686,16 +2721,18 @@
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="12"/>
-      <c r="H50" s="27">
+      <c r="H50" s="22">
         <v>45040.0</v>
       </c>
-      <c r="I50" s="20" t="s">
+      <c r="I50" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="20">
+      <c r="J50" s="16">
         <v>2.0</v>
       </c>
-      <c r="K50" s="21"/>
+      <c r="K50" s="17">
+        <v>45053.0</v>
+      </c>
       <c r="L50" s="6"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
@@ -2713,8 +2750,8 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="24" t="s">
-        <v>39</v>
+      <c r="A51" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -2722,16 +2759,18 @@
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="12"/>
-      <c r="H51" s="19">
+      <c r="H51" s="15">
         <v>45040.0</v>
       </c>
-      <c r="I51" s="20" t="s">
-        <v>36</v>
+      <c r="I51" s="16" t="s">
+        <v>26</v>
       </c>
-      <c r="J51" s="20">
-        <v>3.0</v>
+      <c r="J51" s="16">
+        <v>2.0</v>
       </c>
-      <c r="K51" s="17"/>
+      <c r="K51" s="21">
+        <v>45054.0</v>
+      </c>
       <c r="L51" s="6"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
@@ -2749,8 +2788,8 @@
       <c r="Z51" s="3"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="23" t="s">
-        <v>40</v>
+      <c r="A52" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -2758,16 +2797,18 @@
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="12"/>
-      <c r="H52" s="19">
+      <c r="H52" s="15">
         <v>45040.0</v>
       </c>
-      <c r="I52" s="20" t="s">
-        <v>22</v>
+      <c r="I52" s="16" t="s">
+        <v>26</v>
       </c>
-      <c r="J52" s="20">
-        <v>2.0</v>
+      <c r="J52" s="16">
+        <v>3.0</v>
       </c>
-      <c r="K52" s="21"/>
+      <c r="K52" s="17">
+        <v>45056.0</v>
+      </c>
       <c r="L52" s="6"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
@@ -2785,17 +2826,25 @@
       <c r="Z52" s="3"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="24"/>
+      <c r="A53" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="12"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="17"/>
+      <c r="H53" s="15">
+        <v>45040.0</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J53" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="K53" s="24"/>
       <c r="L53" s="6"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
@@ -2813,17 +2862,17 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="23"/>
+      <c r="A54" s="20"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="12"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="21"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="17"/>
       <c r="L54" s="6"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
@@ -2841,8 +2890,8 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="23" t="s">
-        <v>41</v>
+      <c r="A55" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -2850,16 +2899,18 @@
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="12"/>
-      <c r="H55" s="19" t="s">
-        <v>42</v>
+      <c r="H55" s="15" t="s">
+        <v>46</v>
       </c>
-      <c r="I55" s="20" t="s">
+      <c r="I55" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J55" s="20">
+      <c r="J55" s="16">
         <v>2.0</v>
       </c>
-      <c r="K55" s="17"/>
+      <c r="K55" s="21">
+        <v>45053.0</v>
+      </c>
       <c r="L55" s="6"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
@@ -2877,8 +2928,8 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="23" t="s">
-        <v>43</v>
+      <c r="A56" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -2886,16 +2937,18 @@
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="12"/>
-      <c r="H56" s="19">
+      <c r="H56" s="15">
         <v>45040.0</v>
       </c>
-      <c r="I56" s="20" t="s">
+      <c r="I56" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J56" s="20">
+      <c r="J56" s="16">
         <v>2.0</v>
       </c>
-      <c r="K56" s="21"/>
+      <c r="K56" s="17">
+        <v>45053.0</v>
+      </c>
       <c r="L56" s="6"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
@@ -2913,17 +2966,17 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="14"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" s="12"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="17"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="24"/>
       <c r="L57" s="6"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
@@ -2941,17 +2994,17 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="23"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="12"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="19"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="15"/>
       <c r="L58" s="6"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
@@ -2969,17 +3022,17 @@
       <c r="Z58" s="3"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="14"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="12"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="15"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="26"/>
       <c r="L59" s="6"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
@@ -2997,17 +3050,17 @@
       <c r="Z59" s="3"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="23"/>
+      <c r="A60" s="20"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
       <c r="G60" s="12"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="19"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="15"/>
       <c r="L60" s="6"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
@@ -3025,17 +3078,17 @@
       <c r="Z60" s="3"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="14"/>
+      <c r="A61" s="25"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
       <c r="G61" s="12"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="15"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="26"/>
       <c r="L61" s="6"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
@@ -3053,17 +3106,17 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="23"/>
+      <c r="A62" s="20"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
       <c r="G62" s="12"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="19"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="15"/>
       <c r="L62" s="6"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
@@ -3081,17 +3134,17 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="14"/>
+      <c r="A63" s="25"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
       <c r="G63" s="12"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="15"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="26"/>
       <c r="L63" s="6"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
@@ -3116,10 +3169,10 @@
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
       <c r="G64" s="12"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="19"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="15"/>
       <c r="L64" s="6"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
@@ -3137,17 +3190,17 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="14"/>
+      <c r="A65" s="25"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
       <c r="G65" s="12"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="15"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="26"/>
       <c r="L65" s="6"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
@@ -3172,10 +3225,10 @@
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
       <c r="G66" s="12"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="19"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="15"/>
       <c r="L66" s="6"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
@@ -3194,7 +3247,7 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="3"/>
-      <c r="H67" s="15"/>
+      <c r="H67" s="26"/>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="9"/>
@@ -3222,7 +3275,7 @@
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" s="12"/>
-      <c r="H68" s="15"/>
+      <c r="H68" s="26"/>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="9"/>
@@ -3250,7 +3303,7 @@
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" s="12"/>
-      <c r="H69" s="15"/>
+      <c r="H69" s="26"/>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="9"/>
@@ -3278,7 +3331,7 @@
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="12"/>
-      <c r="H70" s="15"/>
+      <c r="H70" s="26"/>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="9"/>

--- a/docs/Sprint03/Burndown_Sprint_03.xlsx
+++ b/docs/Sprint03/Burndown_Sprint_03.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>Data de início:</t>
   </si>
@@ -79,6 +79,9 @@
     <t>Tela Principal: Função para exibir rendimento geral da sala</t>
   </si>
   <si>
+    <t>Jonas</t>
+  </si>
+  <si>
     <t>Tela Principal: Opção para ordenar a lista de avaliações a partir da avaliação mais antiga</t>
   </si>
   <si>
@@ -109,28 +112,22 @@
     <t>Tela Cadastro: Adicionar atributo 'status' na tabela de aluno e realizar as devidas atualizações no sistema</t>
   </si>
   <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t>Tela Cadastro: Função para deletar aluno logicamente</t>
   </si>
   <si>
     <t>Tela Cadastro: Função para Inserir  e atualizar (n) horário(s)</t>
   </si>
   <si>
-    <t>Jonas*</t>
-  </si>
-  <si>
     <t>Tela Cadastro: Função para Inserir e atualizar (n) aluno(s)</t>
-  </si>
-  <si>
-    <t>Jonas</t>
   </si>
   <si>
     <t>Tela Cadastro Aluno: Ao cadastrar, verificar se já existe aluno com o mesmo nome para aquela sala</t>
   </si>
   <si>
     <t>Tela Cadastro Aluno: Ao inserir um aluno novo, inserir AlunoAvaliacao para todas as avaliações daquela sala</t>
-  </si>
-  <si>
-    <t>Michael</t>
   </si>
   <si>
     <t>Tela Principal: Ajustar formatação das datas</t>
@@ -334,9 +331,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -344,6 +338,9 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -468,11 +465,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="271739269"/>
-        <c:axId val="1997495203"/>
+        <c:axId val="372026811"/>
+        <c:axId val="2002393891"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="271739269"/>
+        <c:axId val="372026811"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -524,10 +521,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1997495203"/>
+        <c:crossAx val="2002393891"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1997495203"/>
+        <c:axId val="2002393891"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -591,7 +588,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271739269"/>
+        <c:crossAx val="372026811"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -873,7 +870,7 @@
       </c>
       <c r="E1" s="4">
         <f>TODAY()</f>
-        <v>45056</v>
+        <v>45060</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1723,11 +1720,11 @@
       </c>
       <c r="D22" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
-      <c r="E22" s="8" t="str">
+      <c r="E22" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1765,11 +1762,11 @@
       </c>
       <c r="D23" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
-      <c r="E23" s="8" t="str">
+      <c r="E23" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1807,11 +1804,11 @@
       </c>
       <c r="D24" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
-      <c r="E24" s="8" t="str">
+      <c r="E24" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1849,11 +1846,11 @@
       </c>
       <c r="D25" s="8">
         <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
-      </c>
-      <c r="E25" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -2024,7 +2021,9 @@
       <c r="J30" s="16">
         <v>2.0</v>
       </c>
-      <c r="K30" s="17"/>
+      <c r="K30" s="17">
+        <v>45058.0</v>
+      </c>
       <c r="L30" s="6"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -2153,12 +2152,14 @@
         <v>45040.0</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J34" s="23">
         <v>3.0</v>
       </c>
-      <c r="K34" s="17"/>
+      <c r="K34" s="17">
+        <v>45058.0</v>
+      </c>
       <c r="L34" s="6"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -2177,7 +2178,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -2243,7 +2244,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -2255,7 +2256,7 @@
         <v>45040.0</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J37" s="16">
         <v>8.0</v>
@@ -2281,7 +2282,7 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -2293,7 +2294,7 @@
         <v>45040.0</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J38" s="16">
         <v>5.0</v>
@@ -2319,7 +2320,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -2331,7 +2332,7 @@
         <v>45040.0</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J39" s="16">
         <v>5.0</v>
@@ -2357,7 +2358,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2369,7 +2370,7 @@
         <v>45040.0</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J40" s="16">
         <v>5.0</v>
@@ -2395,7 +2396,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -2407,12 +2408,14 @@
         <v>45040.0</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J41" s="16">
         <v>5.0</v>
       </c>
-      <c r="K41" s="24"/>
+      <c r="K41" s="17">
+        <v>45057.0</v>
+      </c>
       <c r="L41" s="6"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -2431,7 +2434,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -2443,12 +2446,14 @@
         <v>45040.0</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J42" s="16">
         <v>3.0</v>
       </c>
-      <c r="K42" s="17"/>
+      <c r="K42" s="17">
+        <v>45057.0</v>
+      </c>
       <c r="L42" s="6"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
@@ -2467,7 +2472,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -2479,12 +2484,14 @@
         <v>45040.0</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J43" s="16">
         <v>2.0</v>
       </c>
-      <c r="K43" s="24"/>
+      <c r="K43" s="17">
+        <v>45058.0</v>
+      </c>
       <c r="L43" s="6"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
@@ -2503,7 +2510,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -2515,12 +2522,14 @@
         <v>45040.0</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J44" s="16">
         <v>5.0</v>
       </c>
-      <c r="K44" s="17"/>
+      <c r="K44" s="17">
+        <v>45060.0</v>
+      </c>
       <c r="L44" s="6"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
@@ -2539,7 +2548,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -2551,12 +2560,14 @@
         <v>45040.0</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="J45" s="16">
         <v>3.0</v>
       </c>
-      <c r="K45" s="24"/>
+      <c r="K45" s="17">
+        <v>45059.0</v>
+      </c>
       <c r="L45" s="6"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -2587,12 +2598,14 @@
         <v>45040.0</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J46" s="16">
         <v>3.0</v>
       </c>
-      <c r="K46" s="17"/>
+      <c r="K46" s="17">
+        <v>45060.0</v>
+      </c>
       <c r="L46" s="6"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
@@ -2623,7 +2636,7 @@
         <v>45040.0</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J47" s="16">
         <v>5.0</v>
@@ -2677,7 +2690,7 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -2689,12 +2702,14 @@
         <v>45040.0</v>
       </c>
       <c r="I49" s="16" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="J49" s="16">
         <v>2.0</v>
       </c>
-      <c r="K49" s="24"/>
+      <c r="K49" s="17">
+        <v>45057.0</v>
+      </c>
       <c r="L49" s="6"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
@@ -2713,7 +2728,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -2751,7 +2766,7 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -2763,7 +2778,7 @@
         <v>45040.0</v>
       </c>
       <c r="I51" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J51" s="16">
         <v>2.0</v>
@@ -2789,7 +2804,7 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -2801,7 +2816,7 @@
         <v>45040.0</v>
       </c>
       <c r="I52" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J52" s="16">
         <v>3.0</v>
@@ -2827,7 +2842,7 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -2839,12 +2854,14 @@
         <v>45040.0</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="J53" s="16">
         <v>2.0</v>
       </c>
-      <c r="K53" s="24"/>
+      <c r="K53" s="17">
+        <v>45060.0</v>
+      </c>
       <c r="L53" s="6"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
@@ -2891,7 +2908,7 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -2900,7 +2917,7 @@
       <c r="F55" s="11"/>
       <c r="G55" s="12"/>
       <c r="H55" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I55" s="16" t="s">
         <v>20</v>
@@ -2929,7 +2946,7 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -2966,17 +2983,17 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="25"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" s="12"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="24"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="27"/>
       <c r="L57" s="6"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
@@ -3003,7 +3020,7 @@
       <c r="G58" s="12"/>
       <c r="H58" s="15"/>
       <c r="I58" s="16"/>
-      <c r="J58" s="27"/>
+      <c r="J58" s="26"/>
       <c r="K58" s="15"/>
       <c r="L58" s="6"/>
       <c r="M58" s="3"/>
@@ -3022,17 +3039,17 @@
       <c r="Z58" s="3"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="25"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="12"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="26"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="25"/>
       <c r="L59" s="6"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
@@ -3058,8 +3075,8 @@
       <c r="F60" s="11"/>
       <c r="G60" s="12"/>
       <c r="H60" s="15"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
       <c r="K60" s="15"/>
       <c r="L60" s="6"/>
       <c r="M60" s="3"/>
@@ -3078,17 +3095,17 @@
       <c r="Z60" s="3"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="25"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
       <c r="G61" s="12"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="26"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="25"/>
       <c r="L61" s="6"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
@@ -3114,8 +3131,8 @@
       <c r="F62" s="11"/>
       <c r="G62" s="12"/>
       <c r="H62" s="15"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
       <c r="K62" s="15"/>
       <c r="L62" s="6"/>
       <c r="M62" s="3"/>
@@ -3134,17 +3151,17 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="25"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
       <c r="G63" s="12"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="26"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="25"/>
       <c r="L63" s="6"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
@@ -3170,8 +3187,8 @@
       <c r="F64" s="11"/>
       <c r="G64" s="12"/>
       <c r="H64" s="15"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
       <c r="K64" s="15"/>
       <c r="L64" s="6"/>
       <c r="M64" s="3"/>
@@ -3190,17 +3207,17 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="25"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
       <c r="G65" s="12"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="26"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="25"/>
       <c r="L65" s="6"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
@@ -3226,8 +3243,8 @@
       <c r="F66" s="11"/>
       <c r="G66" s="12"/>
       <c r="H66" s="15"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
       <c r="K66" s="15"/>
       <c r="L66" s="6"/>
       <c r="M66" s="3"/>
@@ -3247,7 +3264,7 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="3"/>
-      <c r="H67" s="26"/>
+      <c r="H67" s="25"/>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="9"/>
@@ -3275,7 +3292,7 @@
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" s="12"/>
-      <c r="H68" s="26"/>
+      <c r="H68" s="25"/>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="9"/>
@@ -3303,7 +3320,7 @@
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" s="12"/>
-      <c r="H69" s="26"/>
+      <c r="H69" s="25"/>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="9"/>
@@ -3331,7 +3348,7 @@
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="12"/>
-      <c r="H70" s="26"/>
+      <c r="H70" s="25"/>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="9"/>
